--- a/GPT_MASB_Room204.xlsx
+++ b/GPT_MASB_Room204.xlsx
@@ -462,7 +462,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>23001-CS-033</t>
+          <t>-</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -477,7 +477,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>23001-CS-034</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -492,7 +492,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>23001-CS-035</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -551,7 +551,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>23001-CS-036</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -566,7 +566,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>23001-CS-037</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -581,7 +581,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>23001-CS-038</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -640,7 +640,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>23001-CS-039</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>23001-CS-040</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
